--- a/python/Data/poll-data-vic.xlsx
+++ b/python/Data/poll-data-vic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D70E0EF-2CCA-4C72-BAC6-6C01B82D900A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E0CF80-90C5-46C3-A321-49B874F90439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="390" windowWidth="12570" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="7050" windowWidth="14070" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -408,9 +408,9 @@
   <dimension ref="A1:S140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="600" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1:H1048576"/>
-      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>40479</v>
+        <v>40493</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>40506</v>
+        <v>40503</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>40507</v>
+        <v>40506</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>40508</v>
+        <v>40505</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>40509</v>
+        <v>40506</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>40510</v>
+        <v>40506</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>

--- a/python/Data/poll-data-vic.xlsx
+++ b/python/Data/poll-data-vic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E0CF80-90C5-46C3-A321-49B874F90439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7143D602-3EF7-4B7A-8976-996D69DB0AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="7050" windowWidth="14070" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="5970" windowWidth="22140" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="17">
   <si>
     <t>MidDate</t>
   </si>
@@ -405,12 +405,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S140"/>
+  <dimension ref="A1:S141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A121" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1:H1048576"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4078,6 +4078,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>55</v>
+      </c>
+      <c r="D141">
+        <v>40</v>
+      </c>
+      <c r="E141">
+        <v>44</v>
+      </c>
+      <c r="F141">
+        <v>11</v>
+      </c>
+      <c r="G141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H141">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/python/Data/poll-data-vic.xlsx
+++ b/python/Data/poll-data-vic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7143D602-3EF7-4B7A-8976-996D69DB0AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC0629-3689-4190-A6BE-A4AB8F866A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="5970" windowWidth="22140" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8085" yWindow="3930" windowWidth="12330" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="17">
   <si>
     <t>MidDate</t>
   </si>
@@ -405,12 +405,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:S144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A121" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A136" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1:H1048576"/>
-      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4080,28 +4080,106 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141">
+        <v>51.5</v>
+      </c>
+      <c r="D141">
+        <v>38.5</v>
+      </c>
+      <c r="E141">
+        <v>37</v>
+      </c>
+      <c r="F141">
+        <v>12</v>
+      </c>
+      <c r="G141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H141">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142">
+        <v>51.5</v>
+      </c>
+      <c r="D142">
+        <v>39.5</v>
+      </c>
+      <c r="E142">
+        <v>39</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H142">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>44142</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B143" t="s">
         <v>9</v>
       </c>
-      <c r="C141">
+      <c r="C143">
         <v>55</v>
       </c>
-      <c r="D141">
+      <c r="D143">
         <v>40</v>
       </c>
-      <c r="E141">
+      <c r="E143">
         <v>44</v>
       </c>
-      <c r="F141">
+      <c r="F143">
         <v>11</v>
       </c>
-      <c r="G141" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H141">
+      <c r="G143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H143">
         <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144">
+        <v>58.5</v>
+      </c>
+      <c r="D144">
+        <v>34.5</v>
+      </c>
+      <c r="E144">
+        <v>45</v>
+      </c>
+      <c r="F144">
+        <v>11</v>
+      </c>
+      <c r="G144" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H144">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/python/Data/poll-data-vic.xlsx
+++ b/python/Data/poll-data-vic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC0629-3689-4190-A6BE-A4AB8F866A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA64EFF8-71BF-40D5-9082-AF8A5EB3397D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3930" windowWidth="12330" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17685" yWindow="5145" windowWidth="20130" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="18">
   <si>
     <t>MidDate</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Morgan phone</t>
+  </si>
+  <si>
+    <t>ResolvePM</t>
   </si>
 </sst>
 </file>
@@ -405,12 +408,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S144"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A136" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A130" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1:H1048576"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,6 +4185,29 @@
         <v>9.5</v>
       </c>
     </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145">
+        <v>36</v>
+      </c>
+      <c r="E145">
+        <v>37</v>
+      </c>
+      <c r="F145">
+        <v>9</v>
+      </c>
+      <c r="G145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H145">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/python/Data/poll-data-vic.xlsx
+++ b/python/Data/poll-data-vic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA64EFF8-71BF-40D5-9082-AF8A5EB3397D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13144BA6-1FBD-4B38-828A-8C43C570750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17685" yWindow="5145" windowWidth="20130" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17175" yWindow="6615" windowWidth="20130" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="19">
   <si>
     <t>MidDate</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>ResolvePM</t>
+  </si>
+  <si>
+    <t>Redbridge</t>
   </si>
 </sst>
 </file>
@@ -408,12 +411,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S145"/>
+  <dimension ref="A1:S147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="600" topLeftCell="A130" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1:H1048576"/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,71 +4112,71 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>44104</v>
+        <v>44089</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C142">
-        <v>51.5</v>
+        <v>54</v>
       </c>
       <c r="D142">
-        <v>39.5</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E142">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G142" t="e">
         <v>#N/A</v>
       </c>
       <c r="H142">
-        <v>11.5</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44142</v>
+        <v>44104</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C143">
-        <v>55</v>
+        <v>51.5</v>
       </c>
       <c r="D143">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="E143">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G143" t="e">
         <v>#N/A</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44145</v>
+        <v>44142</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>58.5</v>
+        <v>55</v>
       </c>
       <c r="D144">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="E144">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F144">
         <v>11</v>
@@ -4182,30 +4185,82 @@
         <v>#N/A</v>
       </c>
       <c r="H144">
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>58.5</v>
+      </c>
+      <c r="D145">
+        <v>34.5</v>
+      </c>
+      <c r="E145">
+        <v>45</v>
+      </c>
+      <c r="F145">
+        <v>11</v>
+      </c>
+      <c r="G145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H145">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>44360</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>17</v>
       </c>
-      <c r="D145">
+      <c r="D146">
         <v>36</v>
       </c>
-      <c r="E145">
+      <c r="E146">
         <v>37</v>
       </c>
-      <c r="F145">
+      <c r="F146">
         <v>9</v>
       </c>
-      <c r="G145" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H145">
+      <c r="G146" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H146">
         <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147">
+        <v>52.4</v>
+      </c>
+      <c r="D147">
+        <v>41</v>
+      </c>
+      <c r="E147">
+        <v>37</v>
+      </c>
+      <c r="F147">
+        <v>12</v>
+      </c>
+      <c r="G147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H147">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
